--- a/InputFiles/CDS/TC03_CDS_phs001437_Sex-Female_FileType-PDF.xlsx
+++ b/InputFiles/CDS/TC03_CDS_phs001437_Sex-Female_FileType-PDF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git/Commons_Automation/InputFiles/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C69121-D379-5B4E-85CB-F4B29E87A076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB7FC6B-F2FD-BD41-BE33-4F78A5811CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6160" yWindow="-28060" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-12180" yWindow="-25040" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,30 +63,30 @@
     <t>TC03_CDS_phs001437_Sex-Female_FileType-PDF_WebData.xlsx</t>
   </si>
   <si>
-    <t>SELECT
-    DISTINCT (smp.sample_id) AS "Sample ID",
-    sp.participant_id AS "Participant ID", 
-    s.study_name AS "Study Name",
-    s.phs_accession AS Accession
-FROM 
-    df_participant sp
-JOIN 
-    df_study s ON sp."study.phs_accession" = s.phs_accession
-JOIN 
-    df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-JOIN
-    df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
-JOIN
-    df_program p ON p.program_acronym = s."program.program_acronym"
-JOIN
-    df_file f1 ON f1."sample.sample_id" = smp.sample_id
-JOIN
-    df_genomic_info gi ON gi."file.file_id" = f1.file_id
-WHERE 
-  s.phs_accession = 'phs001437' AND f1.file_type = 'PDF'
-ORDER BY 
-    smp.sample_id ASC
-LIMIT 100;</t>
+    <t>WITH ParticipantsWithPDF AS (
+    SELECT DISTINCT sp.participant_id
+    FROM df_participant sp
+    JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+    JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+    JOIN df_file f ON f."sample.sample_id" = smp.sample_id
+    WHERE s.phs_accession = 'phs001437'
+      AND sp.gender = 'Female'
+      AND f.file_type = 'PDF'
+)
+SELECT
+    COUNT(DISTINCT s.study_name) AS "Studies",
+    COUNT(DISTINCT sp.participant_id) AS "Participants",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT f.file_id) AS "Files"
+FROM df_participant sp
+JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+LEFT JOIN df_file f ON f."sample.sample_id" = smp.sample_id AND f.file_type = 'PDF'
+JOIN df_program p ON p.program_acronym = s."program.program_acronym"
+JOIN df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+WHERE s.phs_accession = 'phs001437'
+  AND sp.gender = 'Female'
+  AND sp.participant_id IN (SELECT participant_id FROM ParticipantsWithPDF);</t>
   </si>
   <si>
     <t>SELECT
@@ -107,8 +107,8 @@
         ) smp
     ), '') AS "Sample Id",
     f1.file_type AS "File Type",
-    gi.library_strategy AS "Library Strategy", 
-'' AS "Supplementary File"
+    gi.library_strategy AS "Library Strategy",
+    '' AS "Supplementary Files"
 FROM 
     df_study s
 INNER JOIN 
@@ -124,7 +124,7 @@
 INNER JOIN
     df_program p ON p.program_acronym = s."program.program_acronym"
 WHERE 
-    s.phs_accession = 'phs001437' AND f1.file_type = 'PDF'
+    s.phs_accession = 'phs001437' AND sp.gender = 'Female' AND f1.file_type = 'PDF'
 GROUP BY
     f1.file_name,
     s.study_name,
@@ -137,96 +137,129 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>WITH PDF_Files AS (
+    <t>WITH ParticipantsWithPDF AS (
+    SELECT DISTINCT
+        sp.study_participant_id
+    FROM 
+        df_participant sp
+    JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+    JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+    JOIN df_file f ON f."sample.sample_id" = smp.sample_id
+    WHERE 
+        s.phs_accession = 'phs001437' 
+        AND sp.gender = 'Female'
+        AND f.file_type = 'PDF'
+)
+SELECT DISTINCT
+    smp.sample_id AS "Sample ID",
+    sp.participant_id AS "Participant ID", 
+    s.study_name AS "Study Name",
+    s.phs_accession AS Accession
+FROM 
+    df_participant sp
+JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+JOIN df_program p ON p.program_acronym = s."program.program_acronym"
+LEFT JOIN df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+WHERE 
+    s.phs_accession = 'phs001437' 
+    AND sp.gender = 'Female'
+    AND sp.study_participant_id IN (SELECT study_participant_id FROM ParticipantsWithPDF)
+ORDER BY 
+    smp.sample_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>WITH ParticipantsWithPDF AS (
+    SELECT DISTINCT
+        sp.study_participant_id
+    FROM 
+        df_participant sp
+    JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+    JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+    JOIN df_file f ON f."sample.sample_id" = smp.sample_id
+    WHERE 
+        s.phs_accession = 'phs001437' 
+        AND sp.gender = 'Female'
+        AND f.file_type = 'PDF'
+),
+Distinct_Samples AS (
     SELECT DISTINCT
         sp.participant_id,
         sp.study_participant_id,
         s.study_name,
         s.phs_accession,
-        sp.gender
-    FROM 
-        df_participant sp
-    JOIN 
-        df_study s ON sp."study.phs_accession" = s.phs_accession
-    JOIN 
-        df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-    JOIN 
-        df_file f ON f."sample.sample_id" = smp.sample_id
-    JOIN 
-        df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
-    JOIN 
-        df_program p ON p.program_acronym = s."program.program_acronym"
-    WHERE 
-        s.phs_accession = 'phs001437' AND f.file_type = 'PDF'
-),
-All_Samples AS (
-    SELECT DISTINCT
-        sp.participant_id,
+        sp.gender,
         smp.sample_id
     FROM 
         df_participant sp
-    JOIN 
-        df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+    JOIN df_study s ON sp."study.phs_accession" = s.phs_accession
+    JOIN df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
+    LEFT JOIN df_diagnosis d ON d."participant.study_participant_id" = sp.study_participant_id
+    JOIN df_program p ON p.program_acronym = s."program.program_acronym"
+    WHERE 
+        s.phs_accession = 'phs001437' 
+        AND sp.gender = 'Female'
+        AND sp.study_participant_id IN (SELECT study_participant_id FROM ParticipantsWithPDF)
 ),
-Ranked_Samples AS (
-    SELECT 
-        a.participant_id,
-        a.sample_id,
-        ROW_NUMBER() OVER (PARTITION BY a.participant_id ORDER BY a.sample_id) AS rn
-    FROM All_Samples a
+Sample_Limit AS (
+    SELECT
+        participant_id,
+        study_participant_id,
+        study_name,
+        phs_accession,
+        gender,
+        sample_id,
+        ROW_NUMBER() OVER (PARTITION BY study_participant_id ORDER BY sample_id) as rn
+    FROM 
+        Distinct_Samples
 )
 SELECT
-    p.participant_id AS "Participant ID",
-    p.study_name AS "Study Name",
-    p.phs_accession AS "Accession",
-    p.gender AS "Gender",
-    GROUP_CONCAT(r.sample_id, ', ') AS "Samples"
+    participant_id AS "Participant ID", 
+    study_name AS "Study Name",
+    phs_accession AS Accession,
+    gender AS Gender,
+    GROUP_CONCAT(
+        CASE 
+            WHEN rn &lt;= 5 THEN sample_id 
+        END, ', '
+    ) ||
+    CASE 
+        WHEN MAX(rn) &gt; 5 THEN ', ...' 
+        ELSE '' 
+    END AS Samples
 FROM 
-    PDF_Files p
-JOIN 
-    Ranked_Samples r ON r.participant_id = p.participant_id
-WHERE 
-    r.rn &lt;= 5
-GROUP BY 
-    p.participant_id, p.study_name, p.phs_accession, p.gender
+    Sample_Limit
+GROUP BY
+    participant_id, 
+    study_name,
+    phs_accession,
+    gender
+ORDER BY CAST(participant_id AS TEXT)
 LIMIT 100;</t>
-  </si>
-  <si>
-    <t>WITH base AS (
-    SELECT
-        sp.participant_id,
-        sp.study_participant_id,
-        smp.sample_id,
-        s.study_name,
-        s.phs_accession,
-        f.file_id,
-        f.file_type
-    FROM 
-        df_participant sp
-    JOIN 
-        df_study s ON sp."study.phs_accession" = s.phs_accession
-    JOIN 
-        df_sample smp ON smp."participant.study_participant_id" = sp.study_participant_id
-    LEFT JOIN 
-        df_file f ON f."sample.sample_id" = smp.sample_id
-    WHERE 
-        s.phs_accession = 'phs001437'
-)
-SELECT
-    COUNT(DISTINCT study_name) AS "Studies",
-    COUNT(DISTINCT participant_id) AS "Participants",
-    COUNT(DISTINCT sample_id) AS "Samples",
-    COUNT(DISTINCT CASE WHEN file_type = 'PDF' THEN file_id END) AS "Files"
-FROM base;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -252,13 +285,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,14 +305,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -610,7 +639,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -643,10 +672,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -655,14 +684,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="404" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -681,7 +710,7 @@
       <c r="C6" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
